--- a/earnings_data.xlsx
+++ b/earnings_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12983fea13125489/Documents/CapstoneProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{8B97C5F7-7A19-4957-A9EA-93E413B18724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE249F72-3D37-4AF3-AED7-C9191BE42412}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F47691D8-787C-46B5-8C79-6FE72D7C40F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D753A69-D51F-4BF0-BD7E-3A3B839D057F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,27 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">earnings_data!$B$1:$G$37</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>year</t>
   </si>
@@ -75,6 +87,9 @@
   </si>
   <si>
     <t>Среднее по полю estimated</t>
+  </si>
+  <si>
+    <t>Inflation</t>
   </si>
   <si>
     <t>TRQ</t>
@@ -579,8 +594,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -881,22 +897,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.26560779933333328</c:v>
+                  <c:v>0.13790807252667603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28855500499999992</c:v>
+                  <c:v>0.13343130511689624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30856560333333333</c:v>
+                  <c:v>0.12525458572835321</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33459927533333333</c:v>
+                  <c:v>0.12377818359778099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34648477766666669</c:v>
+                  <c:v>0.12183014986687078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35549445666666663</c:v>
+                  <c:v>0.12040000864853358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,7 +1351,7 @@
             <c:numRef>
               <c:f>earnings_data!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
@@ -1365,22 +1381,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.20437687199999999</c:v>
+                  <c:v>0.1061159370944849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24049489199999999</c:v>
+                  <c:v>0.11120773083681434</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30843648899999998</c:v>
+                  <c:v>0.12520217485900209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34042656799999998</c:v>
+                  <c:v>0.12593387196974279</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.372138688</c:v>
+                  <c:v>0.13085051654450555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38194989699999998</c:v>
+                  <c:v>0.12936002240447733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,7 +1492,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1770,7 +1786,7 @@
             <c:numRef>
               <c:f>earnings_data!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
@@ -1800,22 +1816,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.30413142799999998</c:v>
+                  <c:v>0.15791019348428376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32872864099999999</c:v>
+                  <c:v>0.15200807763846838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34011861900000001</c:v>
+                  <c:v>0.13806275323180692</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36855504700000002</c:v>
+                  <c:v>0.13633942926126508</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.372905824</c:v>
+                  <c:v>0.13112025493334248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39736655799999998</c:v>
+                  <c:v>0.13458138712237988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1919,7 +1935,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2213,7 +2229,7 @@
             <c:numRef>
               <c:f>earnings_data!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
@@ -2243,22 +2259,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.18003128500000001</c:v>
+                  <c:v>9.3475295449896814E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22416407599999999</c:v>
+                  <c:v>0.10365616509757319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27042054999999998</c:v>
+                  <c:v>0.10977054354133713</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29199032600000002</c:v>
+                  <c:v>0.10801587098342251</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29439847200000002</c:v>
+                  <c:v>0.1035156876489579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30137440999999998</c:v>
+                  <c:v>0.1020704566565882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2362,7 +2378,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2656,7 +2672,7 @@
             <c:numRef>
               <c:f>earnings_data!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
@@ -2686,22 +2702,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.28689694799999998</c:v>
+                  <c:v>0.14896175962127495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29484908199999998</c:v>
+                  <c:v>0.13634176221783401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26722979400000002</c:v>
+                  <c:v>0.10847533484219896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29573385400000002</c:v>
+                  <c:v>0.10940071297546981</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31871492200000001</c:v>
+                  <c:v>0.11206577951285644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31558385300000003</c:v>
+                  <c:v>0.10688295686748582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2805,7 +2821,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3099,7 +3115,7 @@
             <c:numRef>
               <c:f>earnings_data!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
@@ -3129,22 +3145,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.37091417700000001</c:v>
+                  <c:v>0.19258492919465617</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35530655799999999</c:v>
+                  <c:v>0.16429802593519235</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.332863411</c:v>
+                  <c:v>0.13511768052579629</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36507490599999998</c:v>
+                  <c:v>0.13505202199388813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.373991254</c:v>
+                  <c:v>0.1315019113572965</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37625955100000003</c:v>
+                  <c:v>0.12743279766410426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3248,7 +3264,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3542,7 +3558,7 @@
             <c:numRef>
               <c:f>earnings_data!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
@@ -3572,22 +3588,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.247296086</c:v>
+                  <c:v>0.12840032031545956</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28778678099999999</c:v>
+                  <c:v>0.1330760689754952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33232475700000003</c:v>
+                  <c:v>0.13489902736997794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34581495099999998</c:v>
+                  <c:v>0.12792719440289751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.346759506</c:v>
+                  <c:v>0.1219267492042658</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36043247099999998</c:v>
+                  <c:v>0.12207243117616604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3691,7 +3707,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7791,16 +7807,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220436</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>163966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>408214</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>49666</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7827,16 +7843,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>481693</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>78921</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>394606</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>503462</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>155121</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8019,7 +8035,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Даня" refreshedDate="44835.738273842595" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF17000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Даня" refreshedDate="44849.526940162039" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF17000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G37" sheet="earnings_data"/>
   </cacheSource>
@@ -8044,44 +8060,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11158.816999999999" maxValue="62154.385000000002"/>
     </cacheField>
     <cacheField name="TR/Q" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.18003128500000001" maxValue="0.39736655799999998" count="36">
-        <n v="0.20437687199999999"/>
-        <n v="0.24049489199999999"/>
-        <n v="0.30843648899999998"/>
-        <n v="0.34042656799999998"/>
-        <n v="0.372138688"/>
-        <n v="0.38194989699999998"/>
-        <n v="0.30413142799999998"/>
-        <n v="0.32872864099999999"/>
-        <n v="0.34011861900000001"/>
-        <n v="0.36855504700000002"/>
-        <n v="0.372905824"/>
-        <n v="0.39736655799999998"/>
-        <n v="0.18003128500000001"/>
-        <n v="0.22416407599999999"/>
-        <n v="0.27042054999999998"/>
-        <n v="0.29199032600000002"/>
-        <n v="0.29439847200000002"/>
-        <n v="0.30137440999999998"/>
-        <n v="0.28689694799999998"/>
-        <n v="0.29484908199999998"/>
-        <n v="0.26722979400000002"/>
-        <n v="0.29573385400000002"/>
-        <n v="0.31871492200000001"/>
-        <n v="0.31558385300000003"/>
-        <n v="0.37091417700000001"/>
-        <n v="0.35530655799999999"/>
-        <n v="0.332863411"/>
-        <n v="0.36507490599999998"/>
-        <n v="0.373991254"/>
-        <n v="0.37625955100000003"/>
-        <n v="0.247296086"/>
-        <n v="0.28778678099999999"/>
-        <n v="0.33232475700000003"/>
-        <n v="0.34581495099999998"/>
-        <n v="0.346759506"/>
-        <n v="0.36043247099999998"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.3475295449896814E-2" maxValue="0.19258492919465617"/>
     </cacheField>
     <cacheField name="mar_cost_calculated" numFmtId="2">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.5377355932436099E-3" maxValue="3.6510910920989403E-2"/>
@@ -8099,13 +8078,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="36">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="36">
   <r>
     <s v="DONETSK_RAILWAY"/>
     <x v="0"/>
     <n v="2818027"/>
     <n v="13788.385"/>
-    <x v="0"/>
+    <n v="0.1061159370944849"/>
     <n v="1.7949513619159699E-2"/>
     <n v="0.21204982978011599"/>
   </r>
@@ -8114,7 +8093,7 @@
     <x v="1"/>
     <n v="4215419"/>
     <n v="17528.101999999999"/>
-    <x v="1"/>
+    <n v="0.11120773083681434"/>
     <n v="1.7637265777762898E-2"/>
     <n v="0.20836103335798301"/>
   </r>
@@ -8123,7 +8102,7 @@
     <x v="2"/>
     <n v="4062706"/>
     <n v="13171.937"/>
-    <x v="2"/>
+    <n v="0.12520217485900209"/>
     <n v="2.31241547310869E-2"/>
     <n v="0.27318138967854699"/>
   </r>
@@ -8132,7 +8111,7 @@
     <x v="3"/>
     <n v="4493085"/>
     <n v="13198.397000000001"/>
-    <x v="3"/>
+    <n v="0.12593387196974279"/>
     <n v="2.5068618453402101E-2"/>
     <n v="0.29615266400268397"/>
   </r>
@@ -8141,7 +8120,7 @@
     <x v="4"/>
     <n v="4323901"/>
     <n v="11619.058000000001"/>
-    <x v="4"/>
+    <n v="0.13085051654450555"/>
     <n v="2.7905183227435501E-2"/>
     <n v="0.32966293565996202"/>
   </r>
@@ -8150,7 +8129,7 @@
     <x v="5"/>
     <n v="4262109"/>
     <n v="11158.816999999999"/>
-    <x v="5"/>
+    <n v="0.12936002240447733"/>
     <n v="3.1747111885314601E-2"/>
     <n v="0.375050255629513"/>
   </r>
@@ -8159,7 +8138,7 @@
     <x v="0"/>
     <n v="9553457"/>
     <n v="31412.264999999999"/>
-    <x v="6"/>
+    <n v="0.15791019348428376"/>
     <n v="2.3302333978884201E-2"/>
     <n v="0.27528634249049599"/>
   </r>
@@ -8168,7 +8147,7 @@
     <x v="1"/>
     <n v="9772924"/>
     <n v="29729.456999999999"/>
-    <x v="7"/>
+    <n v="0.15200807763846838"/>
     <n v="2.7468390621629198E-2"/>
     <n v="0.32450280710853602"/>
   </r>
@@ -8177,7 +8156,7 @@
     <x v="2"/>
     <n v="7541259"/>
     <n v="22172.437999999998"/>
-    <x v="8"/>
+    <n v="0.13806275323180692"/>
     <n v="2.96827487438188E-2"/>
     <n v="0.350662527803214"/>
   </r>
@@ -8186,7 +8165,7 @@
     <x v="3"/>
     <n v="8058633"/>
     <n v="21865.48"/>
-    <x v="9"/>
+    <n v="0.13633942926126508"/>
     <n v="3.2510544898600301E-2"/>
     <n v="0.38406920978897102"/>
   </r>
@@ -8195,7 +8174,7 @@
     <x v="4"/>
     <n v="7215850"/>
     <n v="19350.328000000001"/>
-    <x v="10"/>
+    <n v="0.13112025493334248"/>
     <n v="3.6510910920989403E-2"/>
     <n v="0.43132825825701998"/>
   </r>
@@ -8204,7 +8183,7 @@
     <x v="5"/>
     <n v="7514597"/>
     <n v="18910.994999999999"/>
-    <x v="11"/>
+    <n v="0.13458138712237988"/>
     <n v="3.6490843492441402E-2"/>
     <n v="0.43109118805567498"/>
   </r>
@@ -8213,7 +8192,7 @@
     <x v="0"/>
     <n v="10959306"/>
     <n v="60874.453000000001"/>
-    <x v="12"/>
+    <n v="9.3475295449896814E-2"/>
     <n v="1.1378868186722299E-2"/>
     <n v="0.13442632002625801"/>
   </r>
@@ -8222,7 +8201,7 @@
     <x v="1"/>
     <n v="12133014"/>
     <n v="54125.595000000001"/>
-    <x v="13"/>
+    <n v="0.10365616509757319"/>
     <n v="1.3475419872095299E-2"/>
     <n v="0.15919431304496701"/>
   </r>
@@ -8231,7 +8210,7 @@
     <x v="2"/>
     <n v="16665717"/>
     <n v="61628.885000000002"/>
-    <x v="14"/>
+    <n v="0.10977054354133713"/>
     <n v="1.08825258500404E-2"/>
     <n v="0.12856268994473299"/>
   </r>
@@ -8240,7 +8219,7 @@
     <x v="3"/>
     <n v="17398716"/>
     <n v="59586.618000000002"/>
-    <x v="15"/>
+    <n v="0.10801587098342251"/>
     <n v="1.24563852595506E-2"/>
     <n v="0.14715576310345199"/>
   </r>
@@ -8249,7 +8228,7 @@
     <x v="4"/>
     <n v="18298156"/>
     <n v="62154.385000000002"/>
-    <x v="16"/>
+    <n v="0.1035156876489579"/>
     <n v="1.24036288917961E-2"/>
     <n v="0.14653251619885599"/>
   </r>
@@ -8258,7 +8237,7 @@
     <x v="5"/>
     <n v="18398600"/>
     <n v="61048.978999999999"/>
-    <x v="17"/>
+    <n v="0.1020704566565882"/>
     <n v="1.2550415740746799E-2"/>
     <n v="0.148266609221896"/>
   </r>
@@ -8267,7 +8246,7 @@
     <x v="0"/>
     <n v="7909643"/>
     <n v="27569.631000000001"/>
-    <x v="18"/>
+    <n v="0.14896175962127495"/>
     <n v="8.5377355932436099E-3"/>
     <n v="0.100862085606735"/>
   </r>
@@ -8276,7 +8255,7 @@
     <x v="1"/>
     <n v="8353985"/>
     <n v="28333.088"/>
-    <x v="19"/>
+    <n v="0.13634176221783401"/>
     <n v="2.0591101248814799E-2"/>
     <n v="0.243256703632103"/>
   </r>
@@ -8285,7 +8264,7 @@
     <x v="2"/>
     <n v="8563623"/>
     <n v="32045.914000000001"/>
-    <x v="20"/>
+    <n v="0.10847533484219896"/>
     <n v="1.7488217815401001E-2"/>
     <n v="0.206600228262174"/>
   </r>
@@ -8294,7 +8273,7 @@
     <x v="3"/>
     <n v="9690900"/>
     <n v="32768.991000000002"/>
-    <x v="21"/>
+    <n v="0.10940071297546981"/>
     <n v="1.7620718160250001E-2"/>
     <n v="0.20816554508173499"/>
   </r>
@@ -8303,7 +8282,7 @@
     <x v="4"/>
     <n v="9938569"/>
     <n v="31183.256000000001"/>
-    <x v="22"/>
+    <n v="0.11206577951285644"/>
     <n v="1.75666151014045E-2"/>
     <n v="0.20752638879805099"/>
   </r>
@@ -8312,7 +8291,7 @@
     <x v="5"/>
     <n v="9761013"/>
     <n v="30930.013999999999"/>
-    <x v="23"/>
+    <n v="0.10688295686748582"/>
     <n v="1.8981497688670801E-2"/>
     <n v="0.22424136047663901"/>
   </r>
@@ -8321,7 +8300,7 @@
     <x v="0"/>
     <n v="8121407"/>
     <n v="21895.65"/>
-    <x v="24"/>
+    <n v="0.19258492919465617"/>
     <n v="2.6905460933371799E-2"/>
     <n v="0.31785253529026603"/>
   </r>
@@ -8330,7 +8309,7 @@
     <x v="1"/>
     <n v="7455190"/>
     <n v="20982.416000000001"/>
-    <x v="25"/>
+    <n v="0.16429802593519235"/>
     <n v="2.7799856060145501E-2"/>
     <n v="0.32841863409452998"/>
   </r>
@@ -8339,7 +8318,7 @@
     <x v="2"/>
     <n v="6689769"/>
     <n v="20097.64"/>
-    <x v="26"/>
+    <n v="0.13511768052579629"/>
     <n v="2.7118666200715201E-2"/>
     <n v="0.320371274327302"/>
   </r>
@@ -8348,7 +8327,7 @@
     <x v="3"/>
     <n v="6398355"/>
     <n v="17526.143"/>
-    <x v="27"/>
+    <n v="0.13505202199388813"/>
     <n v="3.3099702475588501E-2"/>
     <n v="0.39102932952060898"/>
   </r>
@@ -8357,7 +8336,7 @@
     <x v="4"/>
     <n v="5927298"/>
     <n v="15848.761"/>
-    <x v="28"/>
+    <n v="0.1315019113572965"/>
     <n v="3.3537339417358897E-2"/>
     <n v="0.39619943278785502"/>
   </r>
@@ -8366,7 +8345,7 @@
     <x v="5"/>
     <n v="5952735"/>
     <n v="15820.821"/>
-    <x v="29"/>
+    <n v="0.12743279766410426"/>
     <n v="3.6368932976928302E-2"/>
     <n v="0.42965097610278002"/>
   </r>
@@ -8375,7 +8354,7 @@
     <x v="0"/>
     <n v="9771660"/>
     <n v="39514.01"/>
-    <x v="30"/>
+    <n v="0.12840032031545956"/>
     <n v="1.77781191845886E-2"/>
     <n v="0.210025030587939"/>
   </r>
@@ -8384,7 +8363,7 @@
     <x v="1"/>
     <n v="10607480"/>
     <n v="36858.815999999999"/>
-    <x v="31"/>
+    <n v="0.1330760689754952"/>
     <n v="2.11713616023716E-2"/>
     <n v="0.25011171440345398"/>
   </r>
@@ -8393,7 +8372,7 @@
     <x v="2"/>
     <n v="14222601"/>
     <n v="42797.296000000002"/>
-    <x v="32"/>
+    <n v="0.13489902736997794"/>
     <n v="1.7064200304608999E-2"/>
     <n v="0.20159102060925599"/>
   </r>
@@ -8402,7 +8381,7 @@
     <x v="3"/>
     <n v="14316213"/>
     <n v="41398.478999999999"/>
-    <x v="33"/>
+    <n v="0.12792719440289751"/>
     <n v="1.8978055170459099E-2"/>
     <n v="0.22420069166430701"/>
   </r>
@@ -8411,7 +8390,7 @@
     <x v="4"/>
     <n v="14456030"/>
     <n v="41688.921999999999"/>
-    <x v="34"/>
+    <n v="0.1219267492042658"/>
     <n v="1.9526225558665702E-2"/>
     <n v="0.230676601818532"/>
   </r>
@@ -8420,7 +8399,7 @@
     <x v="5"/>
     <n v="13594620"/>
     <n v="37717.523000000001"/>
-    <x v="35"/>
+    <n v="0.12207243117616604"/>
     <n v="2.1598905880537402E-2"/>
     <n v="0.255162586161436"/>
   </r>
@@ -8445,47 +8424,7 @@
     </pivotField>
     <pivotField numFmtId="2" showAll="0"/>
     <pivotField numFmtId="2" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0">
-      <items count="37">
-        <item x="12"/>
-        <item x="0"/>
-        <item x="13"/>
-        <item x="1"/>
-        <item x="30"/>
-        <item x="20"/>
-        <item x="14"/>
-        <item x="18"/>
-        <item x="31"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="19"/>
-        <item x="21"/>
-        <item x="17"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="7"/>
-        <item x="32"/>
-        <item x="26"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="25"/>
-        <item x="35"/>
-        <item x="27"/>
-        <item x="9"/>
-        <item x="24"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
     <pivotField numFmtId="2" showAll="0"/>
     <pivotField dataField="1" numFmtId="2" showAll="0"/>
   </pivotFields>
@@ -8867,7 +8806,7 @@
   <dimension ref="A3:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8880,7 +8819,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
@@ -8891,79 +8830,79 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>2015</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.26560779933333328</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="2">
+        <v>0.13790807252667603</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.20841702396363501</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>2016</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.28855500499999992</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="2">
+        <v>0.13343130511689624</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.25230753427359548</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>2017</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.30856560333333333</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="2">
+        <v>0.12525458572835321</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.24682818843753762</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>2018</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.33459927533333333</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="2">
+        <v>0.12377818359778099</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.27512886719362628</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>2019</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.34648477766666669</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="2">
+        <v>0.12183014986687078</v>
+      </c>
+      <c r="C8" s="2">
         <v>0.29032102225337936</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>2020</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.35549445666666663</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="2">
+        <v>0.12040000864853358</v>
+      </c>
+      <c r="C9" s="2">
         <v>0.31057716260798979</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.31655115288888885</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="2">
+        <v>0.12710038424751846</v>
+      </c>
+      <c r="C10" s="2">
         <v>0.26392996645496053</v>
       </c>
     </row>
@@ -8975,37 +8914,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -9013,833 +8952,980 @@
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>2015</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>2818027</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>13788.385</v>
       </c>
-      <c r="E2" s="1">
-        <v>0.20437687199999999</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="2">
+        <f>(100*C2/H2)/(1000*D2)</f>
+        <v>0.1061159370944849</v>
+      </c>
+      <c r="F2" s="2">
         <v>1.7949513619159699E-2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>0.21204982978011599</v>
       </c>
+      <c r="H2" s="2">
+        <v>192.597717052923</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>2016</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>4215419</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>17528.101999999999</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.24049489199999999</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E37" si="0">(100*C3/H3)/(1000*D3)</f>
+        <v>0.11120773083681434</v>
+      </c>
+      <c r="F3" s="2">
         <v>1.7637265777762898E-2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>0.20836103335798301</v>
       </c>
+      <c r="H3" s="2">
+        <v>216.25735039778601</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>2017</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>4062706</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>13171.937</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.30843648899999998</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12520217485900209</v>
+      </c>
+      <c r="F4" s="2">
         <v>2.31241547310869E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>0.27318138967854699</v>
       </c>
+      <c r="H4" s="2">
+        <v>246.350743687305</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>2018</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>4493085</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>13198.397000000001</v>
       </c>
-      <c r="E5" s="1">
-        <v>0.34042656799999998</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12593387196974279</v>
+      </c>
+      <c r="F5" s="2">
         <v>2.5068618453402101E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>0.29615266400268397</v>
       </c>
+      <c r="H5" s="2">
+        <v>270.32168799723303</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>2019</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>4323901</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>11619.058000000001</v>
       </c>
-      <c r="E6" s="1">
-        <v>0.372138688</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13085051654450555</v>
+      </c>
+      <c r="F6" s="2">
         <v>2.7905183227435501E-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>0.32966293565996202</v>
       </c>
+      <c r="H6" s="2">
+        <v>284.39986163957099</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>2020</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>4262109</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>11158.816999999999</v>
       </c>
-      <c r="E7" s="1">
-        <v>0.38194989699999998</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12936002240447733</v>
+      </c>
+      <c r="F7" s="2">
         <v>3.1747111885314601E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>0.375050255629513</v>
       </c>
+      <c r="H7" s="2">
+        <v>295.261155309581</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>2015</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>9553457</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>31412.264999999999</v>
       </c>
-      <c r="E8" s="1">
-        <v>0.30413142799999998</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15791019348428376</v>
+      </c>
+      <c r="F8" s="2">
         <v>2.3302333978884201E-2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>0.27528634249049599</v>
       </c>
+      <c r="H8" s="2">
+        <v>192.597717052923</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>2016</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>9772924</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>29729.456999999999</v>
       </c>
-      <c r="E9" s="1">
-        <v>0.32872864099999999</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15200807763846838</v>
+      </c>
+      <c r="F9" s="2">
         <v>2.7468390621629198E-2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>0.32450280710853602</v>
       </c>
+      <c r="H9" s="2">
+        <v>216.25735039778601</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>2017</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>7541259</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>22172.437999999998</v>
       </c>
-      <c r="E10" s="1">
-        <v>0.34011861900000001</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13806275323180692</v>
+      </c>
+      <c r="F10" s="2">
         <v>2.96827487438188E-2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>0.350662527803214</v>
       </c>
+      <c r="H10" s="2">
+        <v>246.350743687305</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>2018</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>8058633</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>21865.48</v>
       </c>
-      <c r="E11" s="1">
-        <v>0.36855504700000002</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13633942926126508</v>
+      </c>
+      <c r="F11" s="2">
         <v>3.2510544898600301E-2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>0.38406920978897102</v>
       </c>
+      <c r="H11" s="2">
+        <v>270.32168799723303</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>2019</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>7215850</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>19350.328000000001</v>
       </c>
-      <c r="E12" s="1">
-        <v>0.372905824</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13112025493334248</v>
+      </c>
+      <c r="F12" s="2">
         <v>3.6510910920989403E-2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>0.43132825825701998</v>
       </c>
+      <c r="H12" s="2">
+        <v>284.39986163957099</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>2020</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>7514597</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>18910.994999999999</v>
       </c>
-      <c r="E13" s="1">
-        <v>0.39736655799999998</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13458138712237988</v>
+      </c>
+      <c r="F13" s="2">
         <v>3.6490843492441402E-2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>0.43109118805567498</v>
       </c>
+      <c r="H13" s="2">
+        <v>295.261155309581</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>2015</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>10959306</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>60874.453000000001</v>
       </c>
-      <c r="E14" s="1">
-        <v>0.18003128500000001</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>9.3475295449896814E-2</v>
+      </c>
+      <c r="F14" s="2">
         <v>1.1378868186722299E-2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>0.13442632002625801</v>
       </c>
+      <c r="H14" s="2">
+        <v>192.597717052923</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>2016</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>12133014</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>54125.595000000001</v>
       </c>
-      <c r="E15" s="1">
-        <v>0.22416407599999999</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10365616509757319</v>
+      </c>
+      <c r="F15" s="2">
         <v>1.3475419872095299E-2</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>0.15919431304496701</v>
       </c>
+      <c r="H15" s="2">
+        <v>216.25735039778601</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>2017</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>16665717</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>61628.885000000002</v>
       </c>
-      <c r="E16" s="1">
-        <v>0.27042054999999998</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10977054354133713</v>
+      </c>
+      <c r="F16" s="2">
         <v>1.08825258500404E-2</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>0.12856268994473299</v>
       </c>
+      <c r="H16" s="2">
+        <v>246.350743687305</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>2018</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>17398716</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>59586.618000000002</v>
       </c>
-      <c r="E17" s="1">
-        <v>0.29199032600000002</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10801587098342251</v>
+      </c>
+      <c r="F17" s="2">
         <v>1.24563852595506E-2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>0.14715576310345199</v>
       </c>
+      <c r="H17" s="2">
+        <v>270.32168799723303</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>2019</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>18298156</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>62154.385000000002</v>
       </c>
-      <c r="E18" s="1">
-        <v>0.29439847200000002</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1035156876489579</v>
+      </c>
+      <c r="F18" s="2">
         <v>1.24036288917961E-2</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>0.14653251619885599</v>
       </c>
+      <c r="H18" s="2">
+        <v>284.39986163957099</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>2020</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>18398600</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>61048.978999999999</v>
       </c>
-      <c r="E19" s="1">
-        <v>0.30137440999999998</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1020704566565882</v>
+      </c>
+      <c r="F19" s="2">
         <v>1.2550415740746799E-2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <v>0.148266609221896</v>
       </c>
+      <c r="H19" s="2">
+        <v>295.261155309581</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>2015</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>7909643</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>27569.631000000001</v>
       </c>
-      <c r="E20" s="1">
-        <v>0.28689694799999998</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14896175962127495</v>
+      </c>
+      <c r="F20" s="2">
         <v>8.5377355932436099E-3</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>0.100862085606735</v>
       </c>
+      <c r="H20" s="2">
+        <v>192.597717052923</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>2016</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>8353985</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>28333.088</v>
       </c>
-      <c r="E21" s="1">
-        <v>0.29484908199999998</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13634176221783401</v>
+      </c>
+      <c r="F21" s="2">
         <v>2.0591101248814799E-2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>0.243256703632103</v>
       </c>
+      <c r="H21" s="2">
+        <v>216.25735039778601</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>2017</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>8563623</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>32045.914000000001</v>
       </c>
-      <c r="E22" s="1">
-        <v>0.26722979400000002</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10847533484219896</v>
+      </c>
+      <c r="F22" s="2">
         <v>1.7488217815401001E-2</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>0.206600228262174</v>
       </c>
+      <c r="H22" s="2">
+        <v>246.350743687305</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>2018</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>9690900</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>32768.991000000002</v>
       </c>
-      <c r="E23" s="1">
-        <v>0.29573385400000002</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10940071297546981</v>
+      </c>
+      <c r="F23" s="2">
         <v>1.7620718160250001E-2</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>0.20816554508173499</v>
       </c>
+      <c r="H23" s="2">
+        <v>270.32168799723303</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>2019</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>9938569</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>31183.256000000001</v>
       </c>
-      <c r="E24" s="1">
-        <v>0.31871492200000001</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11206577951285644</v>
+      </c>
+      <c r="F24" s="2">
         <v>1.75666151014045E-2</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>0.20752638879805099</v>
       </c>
+      <c r="H24" s="2">
+        <v>284.39986163957099</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>2020</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>9761013</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>30930.013999999999</v>
       </c>
-      <c r="E25" s="1">
-        <v>0.31558385300000003</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10688295686748582</v>
+      </c>
+      <c r="F25" s="2">
         <v>1.8981497688670801E-2</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>0.22424136047663901</v>
       </c>
+      <c r="H25" s="2">
+        <v>295.261155309581</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>2015</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>8121407</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>21895.65</v>
       </c>
-      <c r="E26" s="1">
-        <v>0.37091417700000001</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19258492919465617</v>
+      </c>
+      <c r="F26" s="2">
         <v>2.6905460933371799E-2</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>0.31785253529026603</v>
       </c>
+      <c r="H26" s="2">
+        <v>192.597717052923</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>2016</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>7455190</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>20982.416000000001</v>
       </c>
-      <c r="E27" s="1">
-        <v>0.35530655799999999</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16429802593519235</v>
+      </c>
+      <c r="F27" s="2">
         <v>2.7799856060145501E-2</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>0.32841863409452998</v>
       </c>
+      <c r="H27" s="2">
+        <v>216.25735039778601</v>
+      </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>2017</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>6689769</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>20097.64</v>
       </c>
-      <c r="E28" s="1">
-        <v>0.332863411</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13511768052579629</v>
+      </c>
+      <c r="F28" s="2">
         <v>2.7118666200715201E-2</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="2">
         <v>0.320371274327302</v>
       </c>
+      <c r="H28" s="2">
+        <v>246.350743687305</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>2018</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>6398355</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>17526.143</v>
       </c>
-      <c r="E29" s="1">
-        <v>0.36507490599999998</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13505202199388813</v>
+      </c>
+      <c r="F29" s="2">
         <v>3.3099702475588501E-2</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="2">
         <v>0.39102932952060898</v>
       </c>
+      <c r="H29" s="2">
+        <v>270.32168799723303</v>
+      </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>2019</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>5927298</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>15848.761</v>
       </c>
-      <c r="E30" s="1">
-        <v>0.373991254</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1315019113572965</v>
+      </c>
+      <c r="F30" s="2">
         <v>3.3537339417358897E-2</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <v>0.39619943278785502</v>
       </c>
+      <c r="H30" s="2">
+        <v>284.39986163957099</v>
+      </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>2020</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>5952735</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>15820.821</v>
       </c>
-      <c r="E31" s="1">
-        <v>0.37625955100000003</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12743279766410426</v>
+      </c>
+      <c r="F31" s="2">
         <v>3.6368932976928302E-2</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <v>0.42965097610278002</v>
       </c>
+      <c r="H31" s="2">
+        <v>295.261155309581</v>
+      </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>2015</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>9771660</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>39514.01</v>
       </c>
-      <c r="E32" s="1">
-        <v>0.247296086</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12840032031545956</v>
+      </c>
+      <c r="F32" s="2">
         <v>1.77781191845886E-2</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <v>0.210025030587939</v>
       </c>
+      <c r="H32" s="2">
+        <v>192.597717052923</v>
+      </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>2016</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>10607480</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>36858.815999999999</v>
       </c>
-      <c r="E33" s="1">
-        <v>0.28778678099999999</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1330760689754952</v>
+      </c>
+      <c r="F33" s="2">
         <v>2.11713616023716E-2</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="2">
         <v>0.25011171440345398</v>
       </c>
+      <c r="H33" s="2">
+        <v>216.25735039778601</v>
+      </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>2017</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>14222601</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>42797.296000000002</v>
       </c>
-      <c r="E34" s="1">
-        <v>0.33232475700000003</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13489902736997794</v>
+      </c>
+      <c r="F34" s="2">
         <v>1.7064200304608999E-2</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="2">
         <v>0.20159102060925599</v>
       </c>
+      <c r="H34" s="2">
+        <v>246.350743687305</v>
+      </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>2018</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>14316213</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>41398.478999999999</v>
       </c>
-      <c r="E35" s="1">
-        <v>0.34581495099999998</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12792719440289751</v>
+      </c>
+      <c r="F35" s="2">
         <v>1.8978055170459099E-2</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="2">
         <v>0.22420069166430701</v>
       </c>
+      <c r="H35" s="2">
+        <v>270.32168799723303</v>
+      </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>2019</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>14456030</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>41688.921999999999</v>
       </c>
-      <c r="E36" s="1">
-        <v>0.346759506</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1219267492042658</v>
+      </c>
+      <c r="F36" s="2">
         <v>1.9526225558665702E-2</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="2">
         <v>0.230676601818532</v>
       </c>
+      <c r="H36" s="2">
+        <v>284.39986163957099</v>
+      </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>2020</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>13594620</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>37717.523000000001</v>
       </c>
-      <c r="E37" s="1">
-        <v>0.36043247099999998</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12207243117616604</v>
+      </c>
+      <c r="F37" s="2">
         <v>2.1598905880537402E-2</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="2">
         <v>0.255162586161436</v>
+      </c>
+      <c r="H37" s="2">
+        <v>295.261155309581</v>
       </c>
     </row>
   </sheetData>
